--- a/Sample Data.xlsx
+++ b/Sample Data.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nq623e\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madhunadamala/Desktop/SQLQueries/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC92D60B-E1AA-CB45-9171-31CB02AE8939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample-2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +25,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Nadamala, Madhu</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If the Salary between the Slab From and Slab To then Pick Amount from that Slab From Sheet 2
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Take the Sum of Amount from Sheet 3 for that EMPID
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>RAWCOLUMN</t>
   </si>
@@ -114,13 +154,55 @@
   </si>
   <si>
     <t>1.SALARY_INCOME+3.OTHER_INCOME-1.EXPENSES-(2.ITEM_QTY*2.COST)</t>
+  </si>
+  <si>
+    <t>File 1--&gt;Sheet 1</t>
+  </si>
+  <si>
+    <t>EMPID</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>PPF</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>EmpID</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>File 1--&gt;Sheet 2</t>
+  </si>
+  <si>
+    <t>File 1--&gt;Sheet 3</t>
+  </si>
+  <si>
+    <t>Slab_From</t>
+  </si>
+  <si>
+    <t>Slab_To</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,8 +218,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +250,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -175,12 +269,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,21 +593,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.296875" customWidth="1"/>
-    <col min="2" max="2" width="63.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -518,7 +615,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -546,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -560,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -574,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -588,7 +685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -602,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -616,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -630,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -638,7 +735,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -646,7 +743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -654,7 +751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -662,7 +759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -670,7 +767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
@@ -678,7 +775,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -700,7 +797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -711,7 +808,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -722,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -733,7 +830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -744,7 +841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -753,7 +850,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
@@ -770,7 +867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10000</v>
       </c>
@@ -788,12 +885,12 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>14500</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>7000</v>
       </c>
@@ -807,4 +904,132 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9500</v>
+      </c>
+      <c r="C3">
+        <v>800</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="F3">
+        <v>5000</v>
+      </c>
+      <c r="G3">
+        <v>7000</v>
+      </c>
+      <c r="H3">
+        <v>600</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>7001</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>800</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>